--- a/biology/Zoologie/Chondracanthus_(animal)/Chondracanthus_(animal).xlsx
+++ b/biology/Zoologie/Chondracanthus_(animal)/Chondracanthus_(animal).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chondracanthus est un genre de crustacés copépodes de la famille des Chondracanthidae.
 </t>
@@ -511,16 +523,18 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (17 février 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (17 février 2019) :
 Chondracanthus horridus C. Heller, 1865
 Chondracanthus lophii Johnston, 1836
 Chondracanthus merluccii (Holten, 1802)
 Chondracanthus ninnii Richiardi, 1882
 Chondracanthus ornatus Scott, 1900
 Chondracanthus zei Delaroche, 1811
-Selon Catalogue of Life                                  (17 février 2019)[3] :
+Selon Catalogue of Life                                  (17 février 2019) :
 Chondracanthus angustatus Heller, 1865
 Chondracanthus australis Ho, 1991
 Chondracanthus barnardi Ho, 1972
@@ -561,7 +575,7 @@
 Chondracanthus yabei Ho, J.S., Kim I.H. &amp; Nagasawa, 2005
 Chondracanthus yanezi Atria, 1980
 Chondracanthus zei Delaroche, 1811
-Selon ITIS      (17 février 2019)[1] :
+Selon ITIS      (17 février 2019) :
 Chondracanthus cottunculi R. Rathbun, 1886
 Chondracanthus deltoideus Fraser, 1920
 Chondracanthus distortus
@@ -585,7 +599,7 @@
 Chondracanthus triventricosus Sekerak, 1970
 Chondracanthus wilsoni Ho, 1971
 Chondracanthus yanezi Atria, 1980
-Selon NCBI  (17 février 2019)[4] :
+Selon NCBI  (17 février 2019) :
 Chondracanthus distortus Wilson, 1922
 Chondracanthus irregularis Fraser, 1920
 Chondracanthus lophii
